--- a/ergebnisse/phase_1/Schmankerl/Brain-Writing.xlsx
+++ b/ergebnisse/phase_1/Schmankerl/Brain-Writing.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69F585C-9428-48EF-85FC-BD79FC07D61E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A5B664-8A4D-44E7-820C-252ADD221D60}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1." sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="5." sheetId="5" r:id="rId5"/>
     <sheet name="6." sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -197,10 +197,6 @@
     <t>Forum für Fragen</t>
   </si>
   <si>
-    <t>Suchfunktion:
-gute Idee</t>
-  </si>
-  <si>
     <t>kann man ja wikiartig
 aufbauen</t>
   </si>
@@ -367,6 +363,12 @@
 (neue Publikationen
 bereitstellen)
 Wissen teilen</t>
+  </si>
+  <si>
+    <t>Suchfunktion:
+gute Idee
+evlt. Verbindbar mit
+dem FAQ-Bereich</t>
   </si>
 </sst>
 </file>
@@ -771,7 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -865,7 +867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0280B03E-8102-4F79-9E9E-8C3148F8DB82}">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -970,7 +972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC92CDC-8262-4ECF-93C2-4F50BF08C5CC}">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1074,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C8053A-F14C-4135-85C6-B2295EDC7C2A}">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,13 +1116,13 @@
     </row>
     <row r="4" spans="2:5" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>4</v>
@@ -1128,13 +1130,13 @@
     </row>
     <row r="5" spans="2:5" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>6</v>
@@ -1142,13 +1144,13 @@
     </row>
     <row r="6" spans="2:5" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>9</v>
@@ -1156,7 +1158,7 @@
     </row>
     <row r="7" spans="2:5" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -1166,7 +1168,7 @@
     </row>
     <row r="8" spans="2:5" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1210,10 +1212,10 @@
     </row>
     <row r="3" spans="2:5" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="4" t="s">
@@ -1222,10 +1224,10 @@
     </row>
     <row r="4" spans="2:5" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4" t="s">
@@ -1242,13 +1244,13 @@
     </row>
     <row r="6" spans="2:5" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>6</v>
@@ -1257,10 +1259,10 @@
     <row r="7" spans="2:5" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
@@ -1269,10 +1271,10 @@
     <row r="8" spans="2:5" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>8</v>
@@ -1288,7 +1290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A17F361-6284-462A-8696-CB1EEC45E2A1}">
   <dimension ref="B2:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1314,13 +1316,13 @@
     </row>
     <row r="3" spans="2:5" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
@@ -1328,10 +1330,10 @@
     </row>
     <row r="4" spans="2:5" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="4" t="s">
@@ -1356,13 +1358,13 @@
     </row>
     <row r="7" spans="2:5" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>6</v>
@@ -1372,7 +1374,7 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>9</v>
